--- a/Missing_Menu.xlsx
+++ b/Missing_Menu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -494,7 +494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -521,7 +521,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -529,7 +529,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -537,7 +537,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -545,7 +545,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -553,7 +553,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -561,7 +561,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -569,7 +569,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -577,7 +577,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -585,7 +585,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -593,7 +593,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -601,7 +601,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -609,7 +609,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -617,7 +617,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -625,7 +625,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -633,7 +633,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -641,7 +641,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -649,7 +649,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -657,158 +657,6 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>65</v>
-      </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>68</v>
-      </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>69</v>
-      </c>
-      <c r="B39" t="s">
         <v>23</v>
       </c>
     </row>
